--- a/bme/excel/szakirany-info.xlsx
+++ b/bme/excel/szakirany-info.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogna\programming\martonbognar.github.io\bme\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="szakirany" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -112,20 +117,20 @@
     <t>Menedzsment és vállalkozásgazdaságtan</t>
   </si>
   <si>
-    <t>Kummulált átlag</t>
-  </si>
-  <si>
     <t>Féléves átlag</t>
+  </si>
+  <si>
+    <t>Kumulált átlag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;IGAZ&quot;;&quot;IGAZ&quot;;&quot;HAMIS&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -290,8 +295,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Magyarázó szöveg" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -415,11 +420,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,9 +506,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,6 +558,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,17 +751,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875"/>
     <col min="2" max="2" width="38.5703125"/>
@@ -722,7 +771,7 @@
     <col min="8" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1">
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,14 +788,14 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -764,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -782,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -800,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -818,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -836,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.5" thickBot="1">
+    <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -862,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -882,7 +931,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -902,7 +951,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -922,7 +971,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -942,7 +991,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2</v>
       </c>
@@ -962,7 +1011,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5" thickBot="1">
+    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2</v>
       </c>
@@ -988,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -1008,7 +1057,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>3</v>
       </c>
@@ -1028,7 +1077,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>3</v>
       </c>
@@ -1048,7 +1097,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -1068,7 +1117,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>3</v>
       </c>
@@ -1088,7 +1137,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>3</v>
       </c>
@@ -1108,7 +1157,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="13.5" thickBot="1">
+    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>3</v>
       </c>
@@ -1134,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>4</v>
       </c>
@@ -1154,7 +1203,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>4</v>
       </c>
@@ -1174,7 +1223,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -1194,7 +1243,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>4</v>
       </c>
@@ -1214,7 +1263,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>4</v>
       </c>
@@ -1234,7 +1283,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>4</v>
       </c>
@@ -1254,7 +1303,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>4</v>
       </c>
@@ -1274,7 +1323,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5" thickBot="1">
+    <row r="28" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>4</v>
       </c>
